--- a/data/markers.xlsx
+++ b/data/markers.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\zjgsu-map\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E6B04E-6683-43E4-A5E9-97ABE9446788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267F3E55-E9D7-44F0-8018-FC8DBDFF5977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="1590" windowWidth="19515" windowHeight="15300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7515" yWindow="930" windowWidth="19515" windowHeight="15300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="食堂" sheetId="1" r:id="rId1"/>
     <sheet name="景点" sheetId="2" r:id="rId2"/>
     <sheet name="教学楼" sheetId="3" r:id="rId3"/>
     <sheet name="体育场所" sheetId="4" r:id="rId4"/>
+    <sheet name="大门" sheetId="5" r:id="rId5"/>
+    <sheet name="生活服务" sheetId="6" r:id="rId6"/>
+    <sheet name="学生宿舍" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>纬度</t>
   </si>
@@ -198,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>心里梦工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体育场所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +242,146 @@
   </si>
   <si>
     <t>健身房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理梦工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tycs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟门/飞翔门/南门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球门/北门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操场门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南门/小铁门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道什么门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道小铁门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰巢门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修地铁呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联华超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21幢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生宿舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22幢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23幢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24幢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25幢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26幢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27幢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31幢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28幢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29幢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30幢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +717,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,6 +766,9 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
@@ -641,6 +783,9 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
@@ -655,6 +800,9 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
@@ -669,6 +817,9 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
@@ -683,6 +834,9 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
@@ -697,6 +851,9 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
@@ -710,6 +867,9 @@
       </c>
       <c r="C9" t="s">
         <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -727,7 +887,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,6 +940,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
@@ -794,6 +957,9 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
@@ -808,6 +974,9 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
@@ -822,6 +991,9 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
@@ -836,6 +1008,9 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
@@ -849,6 +1024,9 @@
       </c>
       <c r="C8" t="s">
         <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -865,7 +1043,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,6 +1092,9 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
@@ -928,6 +1109,9 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
@@ -942,6 +1126,9 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -956,6 +1143,9 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
@@ -970,6 +1160,9 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
@@ -984,6 +1177,9 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
@@ -998,6 +1194,9 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
@@ -1012,6 +1211,9 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
@@ -1026,6 +1228,9 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
@@ -1040,6 +1245,9 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
@@ -1054,6 +1262,9 @@
       <c r="C13" t="s">
         <v>36</v>
       </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
@@ -1068,6 +1279,9 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
@@ -1082,6 +1296,9 @@
       <c r="C15" t="s">
         <v>38</v>
       </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
@@ -1096,6 +1313,9 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
@@ -1110,6 +1330,9 @@
       <c r="C17" t="s">
         <v>45</v>
       </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
@@ -1124,6 +1347,9 @@
       <c r="C18" t="s">
         <v>40</v>
       </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
@@ -1138,6 +1364,9 @@
       <c r="C19" t="s">
         <v>41</v>
       </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
@@ -1152,6 +1381,9 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
@@ -1166,6 +1398,9 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
@@ -1180,6 +1415,9 @@
       <c r="C22" t="s">
         <v>44</v>
       </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
       <c r="E22" t="s">
         <v>25</v>
       </c>
@@ -1192,7 +1430,10 @@
         <v>120.38894500000001</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -1208,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F608134B-B2B4-4E27-ACF4-3708612ED938}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1261,10 +1502,13 @@
         <v>120.384868</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1275,10 +1519,13 @@
         <v>120.383195</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1289,10 +1536,13 @@
         <v>120.383044</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1303,10 +1553,13 @@
         <v>120.38528700000001</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1317,10 +1570,13 @@
         <v>120.383903</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1331,10 +1587,13 @@
         <v>120.38471800000001</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1345,10 +1604,13 @@
         <v>120.38496499999999</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1359,10 +1621,13 @@
         <v>120.382948</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1373,10 +1638,13 @@
         <v>120.384064</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1387,10 +1655,13 @@
         <v>120.38701399999999</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1401,10 +1672,13 @@
         <v>120.38600599999999</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1415,10 +1689,615 @@
         <v>120.39353699999999</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C6B9D4-AE99-4529-B1BC-65C90741E142}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>30.307058999999999</v>
+      </c>
+      <c r="B3">
+        <v>120.38857</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30.310805999999999</v>
+      </c>
+      <c r="B4">
+        <v>120.387497</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30.310735999999999</v>
+      </c>
+      <c r="B5">
+        <v>120.390608</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30.310791999999999</v>
+      </c>
+      <c r="B6">
+        <v>120.385437</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30.311283</v>
+      </c>
+      <c r="B7">
+        <v>120.395066</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30.311246000000001</v>
+      </c>
+      <c r="B8">
+        <v>120.390587</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>30.311226999999999</v>
+      </c>
+      <c r="B9">
+        <v>120.388516</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>30.311204</v>
+      </c>
+      <c r="B10">
+        <v>120.387835</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>30.311139000000001</v>
+      </c>
+      <c r="B11">
+        <v>120.395726</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>30.310573999999999</v>
+      </c>
+      <c r="B12">
+        <v>120.393022</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FCEC5B-6B7B-48B0-A5AB-0431138C9DD1}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>30.311347000000001</v>
+      </c>
+      <c r="B3">
+        <v>120.39031300000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30.311319999999998</v>
+      </c>
+      <c r="B4">
+        <v>120.39477599999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30.31175</v>
+      </c>
+      <c r="B5">
+        <v>120.39076900000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30.311709</v>
+      </c>
+      <c r="B6">
+        <v>120.388999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30.311371000000001</v>
+      </c>
+      <c r="B7">
+        <v>120.39115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F717DF-BD12-482E-96FC-C005DFFE7A5B}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>30.311412000000001</v>
+      </c>
+      <c r="B3">
+        <v>120.388892</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30.31176</v>
+      </c>
+      <c r="B4">
+        <v>120.388919</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30.31213</v>
+      </c>
+      <c r="B5">
+        <v>120.38885999999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30.311416999999999</v>
+      </c>
+      <c r="B6">
+        <v>120.389535</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30.311426000000001</v>
+      </c>
+      <c r="B7">
+        <v>120.390136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30.312097999999999</v>
+      </c>
+      <c r="B8">
+        <v>120.38952500000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>30.311778</v>
+      </c>
+      <c r="B9">
+        <v>120.390388</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>30.311820000000001</v>
+      </c>
+      <c r="B10">
+        <v>120.390748</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>30.312111999999999</v>
+      </c>
+      <c r="B11">
+        <v>120.390249</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>30.311491</v>
+      </c>
+      <c r="B12">
+        <v>120.39111800000001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>30.311482000000002</v>
+      </c>
+      <c r="B13">
+        <v>120.391499</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
